--- a/artfynd/A 52018-2019.xlsx
+++ b/artfynd/A 52018-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112231361</v>
+        <v>112231329</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>77719</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>283</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112231346</v>
+        <v>112231350</v>
       </c>
       <c r="B3" t="n">
-        <v>76499</v>
+        <v>73820</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228579</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -909,7 +909,7 @@
         <v>112231298</v>
       </c>
       <c r="B4" t="n">
-        <v>85715</v>
+        <v>85836</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112231329</v>
+        <v>112231361</v>
       </c>
       <c r="B5" t="n">
-        <v>77599</v>
+        <v>77636</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>283</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112231350</v>
+        <v>112231346</v>
       </c>
       <c r="B6" t="n">
-        <v>73696</v>
+        <v>76620</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6440</v>
+        <v>228579</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>

--- a/artfynd/A 52018-2019.xlsx
+++ b/artfynd/A 52018-2019.xlsx
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112231361</v>
+        <v>112231346</v>
       </c>
       <c r="B5" t="n">
-        <v>77636</v>
+        <v>76620</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>228579</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112231346</v>
+        <v>112231361</v>
       </c>
       <c r="B6" t="n">
-        <v>76620</v>
+        <v>77636</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>

--- a/artfynd/A 52018-2019.xlsx
+++ b/artfynd/A 52018-2019.xlsx
@@ -683,7 +683,7 @@
         <v>112231329</v>
       </c>
       <c r="B2" t="n">
-        <v>77719</v>
+        <v>77733</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>112231350</v>
       </c>
       <c r="B3" t="n">
-        <v>73820</v>
+        <v>73834</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>112231298</v>
       </c>
       <c r="B4" t="n">
-        <v>85836</v>
+        <v>85850</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112231346</v>
+        <v>112231361</v>
       </c>
       <c r="B5" t="n">
-        <v>76620</v>
+        <v>77650</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228579</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112231361</v>
+        <v>112231346</v>
       </c>
       <c r="B6" t="n">
-        <v>77636</v>
+        <v>76634</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>228579</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>

--- a/artfynd/A 52018-2019.xlsx
+++ b/artfynd/A 52018-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112231329</v>
+        <v>112231350</v>
       </c>
       <c r="B2" t="n">
-        <v>77733</v>
+        <v>73834</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>283</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kavernularia</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hypogymnia hultenii</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Degel.) Krog</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112231350</v>
+        <v>112231298</v>
       </c>
       <c r="B3" t="n">
-        <v>73834</v>
+        <v>85850</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,35 +809,35 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Krokom (Krokom), Jmt</t>
+          <t>Hökån (Hökån), Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>446425</v>
+        <v>446377</v>
       </c>
       <c r="R3" t="n">
-        <v>7032524</v>
+        <v>7032476</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112231298</v>
+        <v>112231346</v>
       </c>
       <c r="B4" t="n">
-        <v>85850</v>
+        <v>76634</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,35 +922,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>510</v>
+        <v>228579</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hökån (Hökån), Jmt</t>
+          <t>Krokom (Krokom), Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>446377</v>
+        <v>446425</v>
       </c>
       <c r="R4" t="n">
-        <v>7032476</v>
+        <v>7032524</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112231346</v>
+        <v>112231329</v>
       </c>
       <c r="B6" t="n">
-        <v>76634</v>
+        <v>77733</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228579</v>
+        <v>283</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Kavernularia</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Hypogymnia hultenii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Degel.) Krog</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
